--- a/Analyzed/try6/data_2015.xlsx
+++ b/Analyzed/try6/data_2015.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>68.81216289787653</v>
       </c>
       <c r="N2">
-        <v>6.831999999999996</v>
+        <v>302.512</v>
       </c>
       <c r="O2">
-        <v>1128.59</v>
+        <v>-171.41</v>
       </c>
       <c r="P2">
-        <v>522.697104</v>
+        <v>411.7811203819862</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -571,10 +576,10 @@
         <v>2</v>
       </c>
       <c r="V2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X2">
         <v>5</v>
@@ -583,16 +588,19 @@
         <v>3</v>
       </c>
       <c r="Z2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>2</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC2">
         <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -638,13 +646,13 @@
         <v>64.41599617664586</v>
       </c>
       <c r="N3">
-        <v>93.548</v>
+        <v>277.648</v>
       </c>
       <c r="O3">
-        <v>833.4400000000001</v>
+        <v>-116.56</v>
       </c>
       <c r="P3">
-        <v>582.4985184</v>
+        <v>487.4485764828285</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -662,28 +670,31 @@
         <v>6</v>
       </c>
       <c r="V3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="W3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC3">
         <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>56.56335762782581</v>
       </c>
       <c r="N4">
-        <v>-27.076</v>
+        <v>344.288</v>
       </c>
       <c r="O4">
-        <v>1052.43</v>
+        <v>-197.57</v>
       </c>
       <c r="P4">
-        <v>560.8761840000001</v>
+        <v>476.3033696330975</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -753,11 +764,11 @@
         <v>8</v>
       </c>
       <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
         <v>8</v>
       </c>
-      <c r="W4">
-        <v>5</v>
-      </c>
       <c r="X4">
         <v>0</v>
       </c>
@@ -765,15 +776,18 @@
         <v>1</v>
       </c>
       <c r="Z4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
     </row>
@@ -820,13 +834,13 @@
         <v>63.8686030846979</v>
       </c>
       <c r="N5">
-        <v>106.54</v>
+        <v>327.544</v>
       </c>
       <c r="O5">
-        <v>1057.92</v>
+        <v>-142.08</v>
       </c>
       <c r="P5">
-        <v>544.9708295999999</v>
+        <v>448.1508526938532</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,10 +858,10 @@
         <v>5</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -856,7 +870,7 @@
         <v>2</v>
       </c>
       <c r="Z5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA5">
         <v>1</v>
@@ -866,6 +880,9 @@
       </c>
       <c r="AC5">
         <v>2</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>64.17576402974095</v>
       </c>
       <c r="N6">
-        <v>198.996</v>
+        <v>404.096</v>
       </c>
       <c r="O6">
-        <v>1020.26</v>
+        <v>-129.74</v>
       </c>
       <c r="P6">
-        <v>538.7534423999999</v>
+        <v>431.0737890774815</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,28 +952,31 @@
         <v>3</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X6">
         <v>2</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>85.09333264417405</v>
       </c>
       <c r="N7">
-        <v>39.81600000000002</v>
+        <v>437.4720000000001</v>
       </c>
       <c r="O7">
-        <v>1352.04</v>
+        <v>-147.96</v>
       </c>
       <c r="P7">
-        <v>539.2777392</v>
+        <v>438.8596849220527</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,28 +1046,31 @@
         <v>5</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>2</v>
-      </c>
-      <c r="Z7">
-        <v>3</v>
-      </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC7">
         <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1093,13 +1116,13 @@
         <v>74.29503593650675</v>
       </c>
       <c r="N8">
-        <v>156.576</v>
+        <v>389.48</v>
       </c>
       <c r="O8">
-        <v>1114.78</v>
+        <v>-135.22</v>
       </c>
       <c r="P8">
-        <v>482.161896</v>
+        <v>371.0328478826045</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1117,28 +1140,31 @@
         <v>3</v>
       </c>
       <c r="V8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <v>2</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8">
         <v>2</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1184,13 +1210,13 @@
         <v>64.42529549090339</v>
       </c>
       <c r="N9">
-        <v>84.08399999999999</v>
+        <v>345.576</v>
       </c>
       <c r="O9">
-        <v>1138.36</v>
+        <v>-161.64</v>
       </c>
       <c r="P9">
-        <v>559.4554872</v>
+        <v>453.4546377591461</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1208,10 +1234,10 @@
         <v>2</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1226,10 +1252,13 @@
         <v>4</v>
       </c>
       <c r="AB9">
+        <v>1</v>
+      </c>
+      <c r="AC9">
+        <v>3</v>
+      </c>
+      <c r="AD9">
         <v>4</v>
-      </c>
-      <c r="AC9">
-        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1275,13 +1304,13 @@
         <v>78.4957072597136</v>
       </c>
       <c r="N10">
-        <v>130.62</v>
+        <v>291.088</v>
       </c>
       <c r="O10">
-        <v>896.9400000000001</v>
+        <v>-103.06</v>
       </c>
       <c r="P10">
-        <v>540.0510191999999</v>
+        <v>442.7153845490979</v>
       </c>
       <c r="Q10">
         <v>9</v>
@@ -1299,27 +1328,30 @@
         <v>7</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X10">
         <v>4</v>
       </c>
       <c r="Y10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10">
         <v>1</v>
       </c>
     </row>
@@ -1366,13 +1398,13 @@
         <v>76.27694094178631</v>
       </c>
       <c r="N11">
-        <v>87.836</v>
+        <v>316.008</v>
       </c>
       <c r="O11">
-        <v>1123.7</v>
+        <v>-176.3</v>
       </c>
       <c r="P11">
-        <v>416.9205216</v>
+        <v>287.7752343536856</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1390,10 +1422,10 @@
         <v>7</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1402,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1411,6 +1443,9 @@
         <v>1</v>
       </c>
       <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
         <v>0</v>
       </c>
     </row>
